--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2380183.617496493</v>
+        <v>2377367.725594039</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2077272.187628381</v>
+        <v>1902364.322619505</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4916450.854058775</v>
+        <v>4916450.85405877</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7065370.126816118</v>
+        <v>7065370.126816119</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>279.2657265008503</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>273.2026213043491</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -721,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.16600008759388</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>115.3093611884349</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -910,10 +910,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>116.9298459662583</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>312.3962891001646</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3673675009149429</v>
+        <v>188.1036019816042</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1150,10 +1150,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>44.92784848665471</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1198,10 +1198,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.7765072615713</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.0192988591152</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>64.82207750533699</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1378,7 +1378,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>386.8748305814387</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>132.9900209556172</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.15461412430842</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>132.217876474595</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>86.88315976700187</v>
       </c>
       <c r="I12" t="n">
-        <v>46.99939081380012</v>
+        <v>46.99939081380008</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.26241643898346</v>
+        <v>20.26241643898341</v>
       </c>
       <c r="S12" t="n">
-        <v>132.559580477319</v>
+        <v>132.5595804773189</v>
       </c>
       <c r="T12" t="n">
         <v>174.9922440788742</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>13.2617911581202</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70.55327156970807</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>130.3765665682598</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>173.4758797919922</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>273.1722736080262</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>408.9283142668997</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>162.5055525480065</v>
+        <v>162.5055525480064</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1703,10 +1703,10 @@
         <v>118.8042095750141</v>
       </c>
       <c r="H15" t="n">
-        <v>86.88315976700189</v>
+        <v>86.88315976700187</v>
       </c>
       <c r="I15" t="n">
-        <v>46.99939081380012</v>
+        <v>46.99939081380008</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.26241643898346</v>
+        <v>20.26241643898341</v>
       </c>
       <c r="S15" t="n">
-        <v>132.559580477319</v>
+        <v>132.5595804773189</v>
       </c>
       <c r="T15" t="n">
         <v>174.9922440788742</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>26.53795688454261</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.5137285205241</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.5883158341026</v>
       </c>
       <c r="S16" t="n">
-        <v>199.984200133097</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>233.1648087637851</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>149.0393815965298</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>408.9283142668997</v>
       </c>
       <c r="H17" t="n">
-        <v>319.7892792266961</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9900209556172</v>
+        <v>132.9900209556171</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.5055525480065</v>
+        <v>162.5055525480064</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U17" t="n">
-        <v>185.7439950901725</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>34.06624076596319</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1940,10 +1940,10 @@
         <v>118.8042095750141</v>
       </c>
       <c r="H18" t="n">
-        <v>86.88315976700189</v>
+        <v>86.88315976700187</v>
       </c>
       <c r="I18" t="n">
-        <v>46.99939081380012</v>
+        <v>46.99939081380008</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.26241643898346</v>
+        <v>20.26241643898341</v>
       </c>
       <c r="S18" t="n">
-        <v>132.559580477319</v>
+        <v>132.5595804773189</v>
       </c>
       <c r="T18" t="n">
         <v>174.9922440788742</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>130.3765665682598</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>120.5883158341026</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>282.5818882760543</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>103.6926072142633</v>
       </c>
       <c r="X19" t="n">
-        <v>67.02415508979155</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2092,16 +2092,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>47.6047919826095</v>
       </c>
       <c r="G20" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>319.7892792266961</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>113.8254631776892</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.15461412430842</v>
+        <v>31.15461412430832</v>
       </c>
       <c r="S20" t="n">
-        <v>162.5055525480064</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>86.88315976700187</v>
       </c>
       <c r="I21" t="n">
-        <v>46.99939081380011</v>
+        <v>46.99939081380008</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.26241643898346</v>
+        <v>20.26241643898341</v>
       </c>
       <c r="S21" t="n">
-        <v>132.559580477319</v>
+        <v>132.5595804773189</v>
       </c>
       <c r="T21" t="n">
         <v>174.9922440788742</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.5883158341026</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>199.984200133097</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>282.5818882760543</v>
       </c>
       <c r="V22" t="n">
-        <v>99.15347251437034</v>
+        <v>19.10940416922448</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>277.5299680989199</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>297.881010328574</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2335,10 +2335,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1473000347972</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>109.7482280917156</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>110.5851438286122</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012335</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>164.0646420222272</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>180.2642761962529</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>26.21204947040278</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.715101816869072</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>266.8432775986109</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>70.72190097967653</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>160.8450475074943</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.08509183685221</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>88.93659237102831</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.07061072876378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>265.496764044256</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>123.7626819636413</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>64.79755833540506</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012335</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>100.8281897820512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>60.57485527471961</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3283,7 +3283,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>266.6123653753486</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012335</v>
@@ -3483,13 +3483,13 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>81.57798809630707</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>76.19311257242664</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>378.3166858048501</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>288.8972793731953</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>37.19351366189697</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123.6862121416196</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.5851438286122</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T40" t="n">
-        <v>168.9524860761417</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5697534131281</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>42.68254411515251</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>149.9114521408653</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3029221927327</v>
@@ -3948,19 +3948,19 @@
         <v>110.5851438286122</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T43" t="n">
-        <v>146.4339627484964</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>154.3623803063746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>177.695730244717</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>113.8693593270197</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717815</v>
+        <v>25.79987066801711</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
         <v>253.1473000347972</v>
@@ -4042,7 +4042,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>13.79644544902231</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>19.68131573985078</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
         <v>123.6862121416196</v>
@@ -4185,22 +4185,22 @@
         <v>110.5851438286121</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1312.600031018771</v>
+        <v>1679.595029418486</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.600031018771</v>
+        <v>1286.419527921416</v>
       </c>
       <c r="D2" t="n">
-        <v>1312.600031018771</v>
+        <v>900.9783991380839</v>
       </c>
       <c r="E2" t="n">
-        <v>1030.51343859367</v>
+        <v>498.3948742546284</v>
       </c>
       <c r="F2" t="n">
-        <v>613.6190001236475</v>
+        <v>485.5408398250102</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4562446116507</v>
+        <v>476.4184883534174</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
@@ -4330,19 +4330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4369,13 +4369,13 @@
         <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>1709.09074009817</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1312.600031018771</v>
+        <v>2080.089775129883</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>112.6101842924878</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O3" t="n">
         <v>1740.468202408463</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.8840293438263</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="C4" t="n">
-        <v>661.8840293438263</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="D4" t="n">
-        <v>506.2509162463411</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="E4" t="n">
-        <v>350.6921041055436</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="F4" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>370.8697318816186</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="X4" t="n">
-        <v>847.0920480351276</v>
+        <v>87.53932981279621</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.0920480351276</v>
+        <v>87.53932981279621</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.295668769184</v>
+        <v>1993.419123243097</v>
       </c>
       <c r="C5" t="n">
-        <v>872.1201672721143</v>
+        <v>1600.243621746028</v>
       </c>
       <c r="D5" t="n">
-        <v>486.6790384887819</v>
+        <v>1214.802492962695</v>
       </c>
       <c r="E5" t="n">
-        <v>84.09551360532647</v>
+        <v>812.2189680792399</v>
       </c>
       <c r="F5" t="n">
-        <v>71.24147917570829</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
         <v>62.11912770411553</v>
@@ -4597,22 +4597,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2764.34482724372</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2422.238017947238</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>2051.238982915526</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>1661.786377848583</v>
+        <v>2790.404578033893</v>
       </c>
       <c r="Y5" t="n">
-        <v>1265.295668769184</v>
+        <v>2393.913868954494</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L6" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M6" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>2122.831274102045</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>729.1147497448985</v>
+        <v>230.37318160467</v>
       </c>
       <c r="C7" t="n">
-        <v>729.1147497448985</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D7" t="n">
-        <v>729.1147497448985</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E7" t="n">
-        <v>573.555937604101</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F7" t="n">
-        <v>416.230002817074</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G7" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X7" t="n">
-        <v>729.485828028651</v>
+        <v>605.584838661228</v>
       </c>
       <c r="Y7" t="n">
-        <v>729.1147497448985</v>
+        <v>415.5812002959713</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1334.540334613159</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C8" t="n">
-        <v>1334.540334613159</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D8" t="n">
-        <v>949.0992058298266</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="E8" t="n">
-        <v>546.515680946371</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="F8" t="n">
-        <v>533.6616465167529</v>
+        <v>116.6231443137434</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>107.5007928421506</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>107.5007928421506</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2626.703053199792</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.59624390331</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>1913.597208871598</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>1913.597208871598</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.035080324556</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>978.5393418843826</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M9" t="n">
-        <v>1606.310991511064</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N9" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O9" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>260.6903990320245</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>260.6903990320245</v>
+        <v>860.5163534182789</v>
       </c>
       <c r="D10" t="n">
-        <v>260.6903990320245</v>
+        <v>704.8832403207937</v>
       </c>
       <c r="E10" t="n">
-        <v>260.6903990320245</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="F10" t="n">
-        <v>260.6903990320245</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>260.6903990320245</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>195.2135530670377</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>494.7707212490415</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>494.7707212490415</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>260.6903990320245</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>260.6903990320245</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2209.98274969998</v>
+        <v>2063.84852746887</v>
       </c>
       <c r="C11" t="n">
-        <v>1816.807248202911</v>
+        <v>1670.6730259718</v>
       </c>
       <c r="D11" t="n">
-        <v>1431.366119419578</v>
+        <v>1285.231897188468</v>
       </c>
       <c r="E11" t="n">
-        <v>1028.782594536123</v>
+        <v>894.4492400354994</v>
       </c>
       <c r="F11" t="n">
-        <v>611.8881560661006</v>
+        <v>477.5548015654772</v>
       </c>
       <c r="G11" t="n">
-        <v>198.8292527662018</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="H11" t="n">
-        <v>198.8292527662018</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="I11" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7845927599049</v>
+        <v>217.7845927599046</v>
       </c>
       <c r="K11" t="n">
-        <v>589.7144528346286</v>
+        <v>589.7144528346288</v>
       </c>
       <c r="L11" t="n">
-        <v>1099.09726822041</v>
+        <v>1099.097268220411</v>
       </c>
       <c r="M11" t="n">
-        <v>1662.970820761782</v>
+        <v>1662.970820761783</v>
       </c>
       <c r="N11" t="n">
-        <v>2208.943955098717</v>
+        <v>2208.943955098719</v>
       </c>
       <c r="O11" t="n">
-        <v>2666.133276597106</v>
+        <v>2666.133276597107</v>
       </c>
       <c r="P11" t="n">
-        <v>3028.957658493091</v>
+        <v>3028.957658493093</v>
       </c>
       <c r="Q11" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="R11" t="n">
-        <v>3193.325606082649</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="S11" t="n">
-        <v>3193.325606082649</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="T11" t="n">
-        <v>2970.279616700525</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="U11" t="n">
-        <v>2714.535195312092</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="V11" t="n">
-        <v>2580.981784731693</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="W11" t="n">
-        <v>2209.98274969998</v>
+        <v>2853.79587824721</v>
       </c>
       <c r="X11" t="n">
-        <v>2209.98274969998</v>
+        <v>2464.343273180266</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.98274969998</v>
+        <v>2464.343273180266</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>199.7307978421461</v>
       </c>
       <c r="H12" t="n">
-        <v>111.97003040073</v>
+        <v>111.9700304007301</v>
       </c>
       <c r="I12" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J12" t="n">
-        <v>182.7561629990908</v>
+        <v>177.6108804853058</v>
       </c>
       <c r="K12" t="n">
-        <v>511.2894164059169</v>
+        <v>506.1441338921321</v>
       </c>
       <c r="L12" t="n">
-        <v>511.2894164059169</v>
+        <v>1001.534982375513</v>
       </c>
       <c r="M12" t="n">
-        <v>531.8162681406668</v>
+        <v>1643.105572200948</v>
       </c>
       <c r="N12" t="n">
-        <v>1201.758396437013</v>
+        <v>1718.278679027993</v>
       </c>
       <c r="O12" t="n">
-        <v>1718.278679027994</v>
+        <v>1718.278679027993</v>
       </c>
       <c r="P12" t="n">
         <v>2134.299532916164</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233.4504590509418</v>
+        <v>267.4553307281723</v>
       </c>
       <c r="C13" t="n">
-        <v>220.0547104063759</v>
+        <v>267.4553307281723</v>
       </c>
       <c r="D13" t="n">
-        <v>220.0547104063759</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="E13" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="F13" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="G13" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="H13" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="I13" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J13" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="K13" t="n">
-        <v>151.6355101603022</v>
+        <v>151.6355101603023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.5511743388222</v>
+        <v>322.5511743388224</v>
       </c>
       <c r="M13" t="n">
-        <v>515.9997725551766</v>
+        <v>515.9997725551769</v>
       </c>
       <c r="N13" t="n">
-        <v>706.1762485285012</v>
+        <v>706.1762485285017</v>
       </c>
       <c r="O13" t="n">
-        <v>875.3344949568908</v>
+        <v>875.3344949568914</v>
       </c>
       <c r="P13" t="n">
-        <v>1000.73272722179</v>
+        <v>1000.732727221791</v>
       </c>
       <c r="Q13" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="R13" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="S13" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="U13" t="n">
-        <v>722.5418654134742</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="V13" t="n">
-        <v>456.5625202342984</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="W13" t="n">
-        <v>456.5625202342984</v>
+        <v>724.6477141285459</v>
       </c>
       <c r="X13" t="n">
-        <v>456.5625202342984</v>
+        <v>490.5673919115289</v>
       </c>
       <c r="Y13" t="n">
-        <v>233.4504590509418</v>
+        <v>267.4553307281723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1532.103021348936</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="C14" t="n">
-        <v>1138.927519851866</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="D14" t="n">
-        <v>753.486391068534</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="E14" t="n">
-        <v>477.5548015654772</v>
+        <v>894.4492400354994</v>
       </c>
       <c r="F14" t="n">
         <v>477.5548015654772</v>
       </c>
       <c r="G14" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="H14" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="I14" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7845927599046</v>
+        <v>217.7845927599051</v>
       </c>
       <c r="K14" t="n">
-        <v>589.7144528346287</v>
+        <v>589.7144528346294</v>
       </c>
       <c r="L14" t="n">
-        <v>1099.09726822041</v>
+        <v>1099.097268220411</v>
       </c>
       <c r="M14" t="n">
-        <v>1662.970820761783</v>
+        <v>1662.970820761784</v>
       </c>
       <c r="N14" t="n">
-        <v>2208.943955098718</v>
+        <v>2208.943955098719</v>
       </c>
       <c r="O14" t="n">
-        <v>2666.133276597106</v>
+        <v>2666.133276597107</v>
       </c>
       <c r="P14" t="n">
-        <v>3028.957658493091</v>
+        <v>3028.957658493093</v>
       </c>
       <c r="Q14" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="R14" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="S14" t="n">
-        <v>3060.647890503156</v>
+        <v>3060.647890503158</v>
       </c>
       <c r="T14" t="n">
-        <v>3060.647890503156</v>
+        <v>2837.601901121034</v>
       </c>
       <c r="U14" t="n">
-        <v>3060.647890503156</v>
+        <v>2581.8574797326</v>
       </c>
       <c r="V14" t="n">
-        <v>2718.541081206675</v>
+        <v>2239.750670436119</v>
       </c>
       <c r="W14" t="n">
-        <v>2718.541081206675</v>
+        <v>1868.751635404406</v>
       </c>
       <c r="X14" t="n">
-        <v>2329.088476139731</v>
+        <v>1868.751635404406</v>
       </c>
       <c r="Y14" t="n">
-        <v>1932.597767060333</v>
+        <v>1472.260926325008</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>199.7307978421461</v>
       </c>
       <c r="H15" t="n">
-        <v>111.97003040073</v>
+        <v>111.9700304007301</v>
       </c>
       <c r="I15" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J15" t="n">
-        <v>182.7561629990908</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="K15" t="n">
-        <v>511.2894164059169</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="L15" t="n">
-        <v>1006.680264889297</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="M15" t="n">
-        <v>1648.250854714732</v>
+        <v>518.8588315998693</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.250854714732</v>
+        <v>1188.800959896216</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.299532916164</v>
+        <v>1718.278679027993</v>
       </c>
       <c r="P15" t="n">
         <v>2134.299532916164</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.7010161995892</v>
+        <v>416.5714054976364</v>
       </c>
       <c r="C16" t="n">
-        <v>64.4958982655784</v>
+        <v>246.3662875636256</v>
       </c>
       <c r="D16" t="n">
-        <v>64.4958982655784</v>
+        <v>219.5602705085321</v>
       </c>
       <c r="E16" t="n">
-        <v>64.4958982655784</v>
+        <v>219.5602705085321</v>
       </c>
       <c r="F16" t="n">
-        <v>64.4958982655784</v>
+        <v>219.5602705085321</v>
       </c>
       <c r="G16" t="n">
-        <v>64.4958982655784</v>
+        <v>219.5602705085321</v>
       </c>
       <c r="H16" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="I16" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J16" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="K16" t="n">
-        <v>151.6355101603022</v>
+        <v>151.6355101603023</v>
       </c>
       <c r="L16" t="n">
-        <v>322.5511743388221</v>
+        <v>322.5511743388224</v>
       </c>
       <c r="M16" t="n">
-        <v>515.9997725551765</v>
+        <v>515.9997725551769</v>
       </c>
       <c r="N16" t="n">
-        <v>706.176248528501</v>
+        <v>706.1762485285017</v>
       </c>
       <c r="O16" t="n">
-        <v>875.3344949568906</v>
+        <v>875.3344949568914</v>
       </c>
       <c r="P16" t="n">
-        <v>1000.73272722179</v>
+        <v>1000.732727221791</v>
       </c>
       <c r="Q16" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="R16" t="n">
-        <v>1007.978116197367</v>
+        <v>886.1717365669615</v>
       </c>
       <c r="S16" t="n">
-        <v>805.9738736386832</v>
+        <v>886.1717365669615</v>
       </c>
       <c r="T16" t="n">
-        <v>570.4538647863751</v>
+        <v>650.6517277146534</v>
       </c>
       <c r="U16" t="n">
-        <v>570.4538647863751</v>
+        <v>650.6517277146534</v>
       </c>
       <c r="V16" t="n">
-        <v>419.9090348908904</v>
+        <v>650.6517277146534</v>
       </c>
       <c r="W16" t="n">
-        <v>419.9090348908904</v>
+        <v>650.6517277146534</v>
       </c>
       <c r="X16" t="n">
-        <v>419.9090348908904</v>
+        <v>416.5714054976364</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.9090348908904</v>
+        <v>416.5714054976364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1744.977569999552</v>
+        <v>1390.504786346502</v>
       </c>
       <c r="C17" t="n">
-        <v>1351.802068502483</v>
+        <v>997.3292848494327</v>
       </c>
       <c r="D17" t="n">
-        <v>1351.802068502483</v>
+        <v>611.8881560661005</v>
       </c>
       <c r="E17" t="n">
-        <v>1351.802068502483</v>
+        <v>611.8881560661005</v>
       </c>
       <c r="F17" t="n">
-        <v>934.9076300324602</v>
+        <v>611.8881560661005</v>
       </c>
       <c r="G17" t="n">
-        <v>521.8487267325615</v>
+        <v>198.8292527662018</v>
       </c>
       <c r="H17" t="n">
         <v>198.8292527662018</v>
       </c>
       <c r="I17" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J17" t="n">
         <v>217.7845927599046</v>
       </c>
       <c r="K17" t="n">
-        <v>589.7144528346284</v>
+        <v>589.7144528346288</v>
       </c>
       <c r="L17" t="n">
-        <v>1099.09726822041</v>
+        <v>1099.097268220411</v>
       </c>
       <c r="M17" t="n">
-        <v>1662.970820761782</v>
+        <v>1662.970820761783</v>
       </c>
       <c r="N17" t="n">
-        <v>2208.943955098717</v>
+        <v>2208.943955098719</v>
       </c>
       <c r="O17" t="n">
-        <v>2666.133276597106</v>
+        <v>2666.133276597107</v>
       </c>
       <c r="P17" t="n">
-        <v>3028.957658493091</v>
+        <v>3028.957658493093</v>
       </c>
       <c r="Q17" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="R17" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="S17" t="n">
-        <v>3060.647890503156</v>
+        <v>3060.647890503158</v>
       </c>
       <c r="T17" t="n">
-        <v>3060.647890503156</v>
+        <v>2837.601901121034</v>
       </c>
       <c r="U17" t="n">
-        <v>2873.027693442376</v>
+        <v>2581.8574797326</v>
       </c>
       <c r="V17" t="n">
-        <v>2530.920884145894</v>
+        <v>2547.447135524557</v>
       </c>
       <c r="W17" t="n">
-        <v>2530.920884145894</v>
+        <v>2176.448100492844</v>
       </c>
       <c r="X17" t="n">
-        <v>2141.468279078951</v>
+        <v>1786.995495425901</v>
       </c>
       <c r="Y17" t="n">
-        <v>1744.977569999552</v>
+        <v>1390.504786346502</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>199.7307978421461</v>
       </c>
       <c r="H18" t="n">
-        <v>111.97003040073</v>
+        <v>111.9700304007301</v>
       </c>
       <c r="I18" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J18" t="n">
-        <v>182.7561629990908</v>
+        <v>177.6108804853058</v>
       </c>
       <c r="K18" t="n">
-        <v>511.2894164059169</v>
+        <v>506.1441338921321</v>
       </c>
       <c r="L18" t="n">
-        <v>1006.680264889297</v>
+        <v>1001.534982375513</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.800959896216</v>
+        <v>1001.534982375513</v>
       </c>
       <c r="N18" t="n">
         <v>1188.800959896216</v>
       </c>
       <c r="O18" t="n">
-        <v>1718.278679027994</v>
+        <v>1718.278679027993</v>
       </c>
       <c r="P18" t="n">
         <v>2134.299532916164</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.4958982655784</v>
+        <v>351.8225129471645</v>
       </c>
       <c r="C19" t="n">
-        <v>64.4958982655784</v>
+        <v>351.8225129471645</v>
       </c>
       <c r="D19" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="E19" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="F19" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="G19" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="H19" t="n">
-        <v>64.4958982655784</v>
+        <v>196.1893998496793</v>
       </c>
       <c r="I19" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J19" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="K19" t="n">
-        <v>151.6355101603022</v>
+        <v>151.6355101603023</v>
       </c>
       <c r="L19" t="n">
-        <v>322.5511743388221</v>
+        <v>322.5511743388224</v>
       </c>
       <c r="M19" t="n">
-        <v>515.9997725551765</v>
+        <v>515.9997725551769</v>
       </c>
       <c r="N19" t="n">
-        <v>706.176248528501</v>
+        <v>706.1762485285017</v>
       </c>
       <c r="O19" t="n">
-        <v>875.3344949568906</v>
+        <v>875.3344949568914</v>
       </c>
       <c r="P19" t="n">
-        <v>1000.73272722179</v>
+        <v>1000.732727221791</v>
       </c>
       <c r="Q19" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="R19" t="n">
-        <v>886.1717365669605</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="S19" t="n">
-        <v>886.1717365669605</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="T19" t="n">
-        <v>886.1717365669605</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="U19" t="n">
-        <v>600.7354857830672</v>
+        <v>722.541865413475</v>
       </c>
       <c r="V19" t="n">
-        <v>600.7354857830672</v>
+        <v>456.5625202342992</v>
       </c>
       <c r="W19" t="n">
-        <v>317.4050837142449</v>
+        <v>351.8225129471645</v>
       </c>
       <c r="X19" t="n">
-        <v>249.7039169568797</v>
+        <v>351.8225129471645</v>
       </c>
       <c r="Y19" t="n">
-        <v>249.7039169568797</v>
+        <v>351.8225129471645</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1703.574144529624</v>
+        <v>1293.781701896718</v>
       </c>
       <c r="C20" t="n">
-        <v>1703.574144529624</v>
+        <v>900.6062003996485</v>
       </c>
       <c r="D20" t="n">
-        <v>1318.133015746292</v>
+        <v>515.1650716163163</v>
       </c>
       <c r="E20" t="n">
-        <v>915.5494908628361</v>
+        <v>112.5815467328608</v>
       </c>
       <c r="F20" t="n">
-        <v>915.5494908628361</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="G20" t="n">
-        <v>502.4905875629374</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="H20" t="n">
-        <v>179.4711135965777</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="I20" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J20" t="n">
-        <v>217.7845927599046</v>
+        <v>217.7845927599049</v>
       </c>
       <c r="K20" t="n">
-        <v>589.7144528346286</v>
+        <v>589.7144528346289</v>
       </c>
       <c r="L20" t="n">
         <v>1099.09726822041</v>
@@ -5764,40 +5764,40 @@
         <v>1662.970820761783</v>
       </c>
       <c r="N20" t="n">
-        <v>2208.943955098718</v>
+        <v>2208.943955098719</v>
       </c>
       <c r="O20" t="n">
-        <v>2666.133276597106</v>
+        <v>2666.133276597107</v>
       </c>
       <c r="P20" t="n">
-        <v>3028.957658493091</v>
+        <v>3028.957658493093</v>
       </c>
       <c r="Q20" t="n">
-        <v>3224.79491327892</v>
+        <v>3224.794913278922</v>
       </c>
       <c r="R20" t="n">
-        <v>3193.325606082649</v>
+        <v>3193.325606082651</v>
       </c>
       <c r="S20" t="n">
-        <v>3029.178583306885</v>
+        <v>3193.325606082651</v>
       </c>
       <c r="T20" t="n">
-        <v>2806.132593924761</v>
+        <v>3193.325606082651</v>
       </c>
       <c r="U20" t="n">
-        <v>2806.132593924761</v>
+        <v>3193.325606082651</v>
       </c>
       <c r="V20" t="n">
-        <v>2464.02578462828</v>
+        <v>2851.21879678617</v>
       </c>
       <c r="W20" t="n">
-        <v>2093.026749596567</v>
+        <v>2480.219761754457</v>
       </c>
       <c r="X20" t="n">
-        <v>1703.574144529624</v>
+        <v>2090.767156687514</v>
       </c>
       <c r="Y20" t="n">
-        <v>1703.574144529624</v>
+        <v>1694.276447608115</v>
       </c>
     </row>
     <row r="21">
@@ -5816,37 +5816,37 @@
         <v>580.6133469441004</v>
       </c>
       <c r="E21" t="n">
-        <v>444.166856054988</v>
+        <v>444.1668560549881</v>
       </c>
       <c r="F21" t="n">
         <v>319.7350499381199</v>
       </c>
       <c r="G21" t="n">
-        <v>199.730797842146</v>
+        <v>199.7307978421461</v>
       </c>
       <c r="H21" t="n">
-        <v>111.97003040073</v>
+        <v>111.9700304007301</v>
       </c>
       <c r="I21" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J21" t="n">
-        <v>182.7561629990908</v>
+        <v>177.6108804853058</v>
       </c>
       <c r="K21" t="n">
-        <v>511.2894164059169</v>
+        <v>177.6108804853058</v>
       </c>
       <c r="L21" t="n">
-        <v>511.2894164059169</v>
+        <v>673.0017289686862</v>
       </c>
       <c r="M21" t="n">
-        <v>545.9804252264533</v>
+        <v>1314.572318794121</v>
       </c>
       <c r="N21" t="n">
-        <v>1201.758396437012</v>
+        <v>1314.572318794121</v>
       </c>
       <c r="O21" t="n">
-        <v>1718.278679027994</v>
+        <v>1718.278679027993</v>
       </c>
       <c r="P21" t="n">
         <v>2134.299532916164</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.4958982655784</v>
+        <v>234.7010161995892</v>
       </c>
       <c r="C22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="D22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="E22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="F22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="G22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="H22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="I22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="J22" t="n">
-        <v>64.4958982655784</v>
+        <v>64.49589826557845</v>
       </c>
       <c r="K22" t="n">
-        <v>151.6355101603022</v>
+        <v>151.6355101603023</v>
       </c>
       <c r="L22" t="n">
-        <v>322.5511743388222</v>
+        <v>322.5511743388224</v>
       </c>
       <c r="M22" t="n">
-        <v>515.9997725551766</v>
+        <v>515.9997725551769</v>
       </c>
       <c r="N22" t="n">
-        <v>706.1762485285012</v>
+        <v>706.1762485285017</v>
       </c>
       <c r="O22" t="n">
-        <v>875.3344949568908</v>
+        <v>875.3344949568914</v>
       </c>
       <c r="P22" t="n">
-        <v>1000.73272722179</v>
+        <v>1000.732727221791</v>
       </c>
       <c r="Q22" t="n">
-        <v>1007.978116197367</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="R22" t="n">
-        <v>886.1717365669607</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="S22" t="n">
-        <v>684.1674940082768</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="T22" t="n">
-        <v>684.1674940082768</v>
+        <v>1007.978116197368</v>
       </c>
       <c r="U22" t="n">
-        <v>398.7312432243835</v>
+        <v>722.541865413475</v>
       </c>
       <c r="V22" t="n">
-        <v>298.5762204825953</v>
+        <v>703.2394369597129</v>
       </c>
       <c r="W22" t="n">
-        <v>298.5762204825953</v>
+        <v>419.9090348908905</v>
       </c>
       <c r="X22" t="n">
-        <v>64.4958982655784</v>
+        <v>419.9090348908905</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.4958982655784</v>
+        <v>419.9090348908905</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.497529828243</v>
+        <v>1984.920139034221</v>
       </c>
       <c r="C23" t="n">
-        <v>1338.322028331174</v>
+        <v>1591.744637537151</v>
       </c>
       <c r="D23" t="n">
-        <v>1338.322028331174</v>
+        <v>1206.303508753819</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.322028331174</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F23" t="n">
-        <v>921.4275898611515</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G23" t="n">
-        <v>508.86966054802</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I23" t="n">
         <v>75.96123154786331</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874826</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K23" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L23" t="n">
         <v>1292.177839612515</v>
@@ -6007,7 +6007,7 @@
         <v>3115.769891361765</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130628</v>
+        <v>3549.201349130629</v>
       </c>
       <c r="Q23" t="n">
         <v>3798.061577393165</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393165</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585811</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116318</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="V23" t="n">
-        <v>3168.773180116318</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="W23" t="n">
-        <v>2797.774145084606</v>
+        <v>3171.35819889196</v>
       </c>
       <c r="X23" t="n">
-        <v>2408.321540017662</v>
+        <v>2781.905593825017</v>
       </c>
       <c r="Y23" t="n">
-        <v>2011.830830938263</v>
+        <v>2385.414884745618</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>75.96123154786331</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786331</v>
+        <v>189.0762137675907</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786331</v>
+        <v>560.0314717468591</v>
       </c>
       <c r="L24" t="n">
-        <v>628.3937003794184</v>
+        <v>631.02116655055</v>
       </c>
       <c r="M24" t="n">
-        <v>872.9695761732041</v>
+        <v>1339.156636842889</v>
       </c>
       <c r="N24" t="n">
-        <v>1611.238359252429</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="O24" t="n">
-        <v>1611.238359252429</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="P24" t="n">
         <v>2077.425419922114</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>246.1663494818741</v>
+        <v>652.8434854478004</v>
       </c>
       <c r="C25" t="n">
-        <v>75.96123154786331</v>
+        <v>652.8434854478004</v>
       </c>
       <c r="D25" t="n">
-        <v>75.96123154786331</v>
+        <v>497.2103723503151</v>
       </c>
       <c r="E25" t="n">
-        <v>75.96123154786331</v>
+        <v>386.3535762980771</v>
       </c>
       <c r="F25" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="G25" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="H25" t="n">
         <v>75.96123154786331</v>
@@ -6174,25 +6174,25 @@
         <v>1110.515389561696</v>
       </c>
       <c r="S25" t="n">
-        <v>912.4273982201011</v>
+        <v>1110.515389561696</v>
       </c>
       <c r="T25" t="n">
-        <v>677.8675552895622</v>
+        <v>875.9555466311571</v>
       </c>
       <c r="U25" t="n">
-        <v>677.8675552895622</v>
+        <v>875.9555466311571</v>
       </c>
       <c r="V25" t="n">
-        <v>411.8882101103865</v>
+        <v>875.9555466311571</v>
       </c>
       <c r="W25" t="n">
-        <v>411.8882101103865</v>
+        <v>875.9555466311571</v>
       </c>
       <c r="X25" t="n">
-        <v>411.8882101103865</v>
+        <v>875.9555466311571</v>
       </c>
       <c r="Y25" t="n">
-        <v>246.1663494818741</v>
+        <v>652.8434854478004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1307.997124214472</v>
+        <v>2134.081054711699</v>
       </c>
       <c r="C26" t="n">
-        <v>1307.997124214472</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="D26" t="n">
-        <v>1307.997124214472</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E26" t="n">
-        <v>905.4135993310169</v>
+        <v>1338.322028331174</v>
       </c>
       <c r="F26" t="n">
-        <v>488.5191608609948</v>
+        <v>921.4275898611515</v>
       </c>
       <c r="G26" t="n">
-        <v>75.96123154786331</v>
+        <v>508.86966054802</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786331</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="I26" t="n">
         <v>75.96123154786331</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874829</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130484</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612515</v>
@@ -6244,7 +6244,7 @@
         <v>3115.769891361765</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q26" t="n">
         <v>3798.061577393165</v>
@@ -6253,25 +6253,25 @@
         <v>3798.061577393165</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340861</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T26" t="n">
-        <v>3463.245371869898</v>
+        <v>3577.208601638115</v>
       </c>
       <c r="U26" t="n">
-        <v>3207.541028400406</v>
+        <v>3321.504258168623</v>
       </c>
       <c r="V26" t="n">
-        <v>2865.434219103924</v>
+        <v>3321.504258168623</v>
       </c>
       <c r="W26" t="n">
-        <v>2494.435184072212</v>
+        <v>2950.50522313691</v>
       </c>
       <c r="X26" t="n">
-        <v>2104.982579005268</v>
+        <v>2561.052618069967</v>
       </c>
       <c r="Y26" t="n">
-        <v>1708.491869925869</v>
+        <v>2534.575800423096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>75.96123154786331</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786331</v>
+        <v>78.58869771899492</v>
       </c>
       <c r="L27" t="n">
-        <v>75.96123154786331</v>
+        <v>631.02116655055</v>
       </c>
       <c r="M27" t="n">
-        <v>280.9863166106128</v>
+        <v>1339.156636842889</v>
       </c>
       <c r="N27" t="n">
-        <v>1019.255099689838</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="O27" t="n">
-        <v>1611.238359252429</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="P27" t="n">
         <v>2077.425419922114</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="C28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
       <c r="H28" t="n">
         <v>75.96123154786331</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R28" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S28" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T28" t="n">
-        <v>910.6949721424555</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U28" t="n">
-        <v>625.2709787958614</v>
+        <v>718.1190478735825</v>
       </c>
       <c r="V28" t="n">
-        <v>359.2916336166857</v>
+        <v>452.1397026944068</v>
       </c>
       <c r="W28" t="n">
-        <v>75.96123154786331</v>
+        <v>452.1397026944068</v>
       </c>
       <c r="X28" t="n">
-        <v>75.96123154786331</v>
+        <v>452.1397026944068</v>
       </c>
       <c r="Y28" t="n">
-        <v>75.96123154786331</v>
+        <v>229.0276415110501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1792.959389014402</v>
+        <v>1669.719316024852</v>
       </c>
       <c r="C29" t="n">
-        <v>1399.783887517333</v>
+        <v>1276.543814527783</v>
       </c>
       <c r="D29" t="n">
-        <v>1399.783887517333</v>
+        <v>891.1026857444502</v>
       </c>
       <c r="E29" t="n">
-        <v>997.2003626338771</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="F29" t="n">
-        <v>580.3059241638549</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G29" t="n">
-        <v>508.86966054802</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I29" t="n">
         <v>75.96123154786331</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874826</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130482</v>
+        <v>705.310815113048</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612515</v>
@@ -6490,25 +6490,25 @@
         <v>3798.061577393165</v>
       </c>
       <c r="S29" t="n">
-        <v>3798.061577393165</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T29" t="n">
-        <v>3577.208601638115</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="U29" t="n">
-        <v>3321.504258168623</v>
+        <v>3389.626155871369</v>
       </c>
       <c r="V29" t="n">
-        <v>2979.397448872141</v>
+        <v>3227.156410914304</v>
       </c>
       <c r="W29" t="n">
-        <v>2979.397448872141</v>
+        <v>2856.157375882591</v>
       </c>
       <c r="X29" t="n">
-        <v>2589.944843805198</v>
+        <v>2466.704770815648</v>
       </c>
       <c r="Y29" t="n">
-        <v>2193.454134725799</v>
+        <v>2070.214061736249</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>75.96123154786331</v>
       </c>
       <c r="M30" t="n">
-        <v>784.0967018402021</v>
+        <v>703.7328811745446</v>
       </c>
       <c r="N30" t="n">
-        <v>1522.365484919427</v>
+        <v>1359.510852385104</v>
       </c>
       <c r="O30" t="n">
-        <v>2038.885767510408</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="P30" t="n">
-        <v>2077.425419922114</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.96123154786331</v>
+        <v>580.9792747304552</v>
       </c>
       <c r="C31" t="n">
-        <v>75.96123154786331</v>
+        <v>410.7741567964445</v>
       </c>
       <c r="D31" t="n">
-        <v>75.96123154786331</v>
+        <v>255.1410436989592</v>
       </c>
       <c r="E31" t="n">
-        <v>75.96123154786331</v>
+        <v>255.1410436989592</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786331</v>
+        <v>255.1410436989592</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786331</v>
+        <v>87.15829400933019</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786331</v>
+        <v>87.15829400933019</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786331</v>
+        <v>87.15829400933019</v>
       </c>
       <c r="J31" t="n">
         <v>75.96123154786331</v>
@@ -6645,28 +6645,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T31" t="n">
-        <v>677.8675552895622</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U31" t="n">
-        <v>677.8675552895622</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V31" t="n">
-        <v>411.8882101103865</v>
+        <v>670.8142165193727</v>
       </c>
       <c r="W31" t="n">
-        <v>128.5578080415641</v>
+        <v>580.9792747304552</v>
       </c>
       <c r="X31" t="n">
-        <v>128.5578080415641</v>
+        <v>580.9792747304552</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.96123154786331</v>
+        <v>580.9792747304552</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.229275930385</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="C32" t="n">
-        <v>876.0537744333155</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D32" t="n">
-        <v>607.875224893663</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E32" t="n">
-        <v>607.875224893663</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F32" t="n">
-        <v>190.9807864236408</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G32" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874829</v>
+        <v>270.9233280874828</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130482</v>
+        <v>705.3108151130481</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612515</v>
@@ -6721,31 +6721,31 @@
         <v>3549.201349130628</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393164</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S32" t="n">
-        <v>3645.33049934086</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T32" t="n">
-        <v>3424.47752358581</v>
+        <v>3577.208601638115</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.773180116318</v>
+        <v>3321.504258168623</v>
       </c>
       <c r="V32" t="n">
-        <v>2826.666370819837</v>
+        <v>2979.397448872141</v>
       </c>
       <c r="W32" t="n">
-        <v>2455.667335788124</v>
+        <v>2608.398413840429</v>
       </c>
       <c r="X32" t="n">
-        <v>2066.214730721181</v>
+        <v>2218.945808773486</v>
       </c>
       <c r="Y32" t="n">
-        <v>1669.724021641782</v>
+        <v>2093.932998709201</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F33" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G33" t="n">
         <v>199.3786510244077</v>
@@ -6776,19 +6776,19 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J33" t="n">
-        <v>219.0418890481676</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K33" t="n">
-        <v>589.997147027436</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="L33" t="n">
-        <v>589.997147027436</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="M33" t="n">
-        <v>589.997147027436</v>
+        <v>280.9863166106128</v>
       </c>
       <c r="N33" t="n">
         <v>1019.255099689838</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.96123154786329</v>
+        <v>479.6011782981749</v>
       </c>
       <c r="C34" t="n">
-        <v>75.96123154786329</v>
+        <v>309.3960603641641</v>
       </c>
       <c r="D34" t="n">
-        <v>75.96123154786329</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786329</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786329</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786329</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K34" t="n">
         <v>188.689628895047</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R34" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S34" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T34" t="n">
-        <v>677.8675552895622</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="U34" t="n">
-        <v>677.8675552895622</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="V34" t="n">
-        <v>411.8882101103865</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="W34" t="n">
-        <v>310.0415537648802</v>
+        <v>936.7935616985485</v>
       </c>
       <c r="X34" t="n">
-        <v>75.96123154786329</v>
+        <v>702.7132394815316</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.96123154786329</v>
+        <v>479.6011782981749</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1677.664697452183</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>1284.489195955113</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>1284.489195955113</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E35" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F35" t="n">
-        <v>806.408034985374</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8501056722425</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H35" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874826</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130484</v>
+        <v>705.310815113048</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612515</v>
       </c>
       <c r="M35" t="n">
-        <v>1942.267504401616</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N35" t="n">
         <v>2575.851817818617</v>
       </c>
       <c r="O35" t="n">
-        <v>3115.769891361766</v>
+        <v>3115.769891361765</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130629</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393166</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="T35" t="n">
-        <v>3577.208601638116</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="U35" t="n">
-        <v>3577.208601638116</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="V35" t="n">
-        <v>3235.101792341634</v>
+        <v>3542.357233923673</v>
       </c>
       <c r="W35" t="n">
-        <v>2864.102757309922</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>2474.650152242978</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>2078.159443163579</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>319.1148584066127</v>
       </c>
       <c r="G36" t="n">
-        <v>199.3786510244078</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H36" t="n">
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J36" t="n">
-        <v>219.0418890481677</v>
+        <v>189.0762137675907</v>
       </c>
       <c r="K36" t="n">
-        <v>219.0418890481677</v>
+        <v>508.8153598298171</v>
       </c>
       <c r="L36" t="n">
-        <v>219.0418890481677</v>
+        <v>992.3814457281303</v>
       </c>
       <c r="M36" t="n">
-        <v>555.8379692985011</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N36" t="n">
-        <v>1294.106752377726</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.090011940317</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P36" t="n">
         <v>2352.277072610002</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="C37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K37" t="n">
         <v>188.689628895047</v>
@@ -7119,28 +7119,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R37" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S37" t="n">
-        <v>912.4273982201011</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="T37" t="n">
-        <v>677.8675552895622</v>
+        <v>987.6577121146037</v>
       </c>
       <c r="U37" t="n">
-        <v>392.4435619429682</v>
+        <v>702.2337187680096</v>
       </c>
       <c r="V37" t="n">
-        <v>310.0415537648802</v>
+        <v>436.2543735888338</v>
       </c>
       <c r="W37" t="n">
-        <v>310.0415537648802</v>
+        <v>152.9239715200114</v>
       </c>
       <c r="X37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.96123154786332</v>
+        <v>75.96123154786331</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1658.681880997328</v>
+        <v>2019.061499835921</v>
       </c>
       <c r="C38" t="n">
-        <v>1658.681880997328</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.240752213996</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E38" t="n">
-        <v>870.6572273305403</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F38" t="n">
-        <v>488.5191608609948</v>
+        <v>806.408034985374</v>
       </c>
       <c r="G38" t="n">
-        <v>75.96123154786331</v>
+        <v>393.8501056722425</v>
       </c>
       <c r="H38" t="n">
         <v>75.96123154786331</v>
@@ -7207,19 +7207,19 @@
         <v>3424.477523585811</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116318</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="V38" t="n">
-        <v>2826.666370819837</v>
+        <v>3082.370714289329</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.667335788124</v>
+        <v>2711.371679257617</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.667335788124</v>
+        <v>2419.556245547318</v>
       </c>
       <c r="Y38" t="n">
-        <v>2059.176626708725</v>
+        <v>2419.556245547318</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2306.520858014183</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C39" t="n">
-        <v>2155.866627574275</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D39" t="n">
-        <v>2025.777660195755</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E39" t="n">
-        <v>1889.331169306643</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F39" t="n">
-        <v>1764.899363189775</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G39" t="n">
-        <v>1645.16315580757</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H39" t="n">
-        <v>1559.991135996501</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>1521.745736331025</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J39" t="n">
-        <v>1664.82639383133</v>
+        <v>189.0762137675907</v>
       </c>
       <c r="K39" t="n">
-        <v>2035.781651810598</v>
+        <v>560.0314717468591</v>
       </c>
       <c r="L39" t="n">
-        <v>2035.781651810598</v>
+        <v>1112.463940578414</v>
       </c>
       <c r="M39" t="n">
-        <v>2505.526165605998</v>
+        <v>1820.599410870753</v>
       </c>
       <c r="N39" t="n">
-        <v>2505.526165605998</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="O39" t="n">
-        <v>3097.50942516859</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="P39" t="n">
-        <v>3563.696485838274</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q39" t="n">
-        <v>3798.061577393165</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R39" t="n">
-        <v>3794.236775028925</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S39" t="n">
-        <v>3665.317021885005</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T39" t="n">
-        <v>3489.637587679134</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U39" t="n">
-        <v>3279.595734525272</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V39" t="n">
-        <v>3057.055732896339</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W39" t="n">
-        <v>2826.938487029625</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X39" t="n">
-        <v>2637.631409379637</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y39" t="n">
-        <v>2458.317192455144</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>371.1019173016919</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8967993676811</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8967993676811</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8967993676811</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="F40" t="n">
-        <v>200.8967993676811</v>
+        <v>243.9439812374923</v>
       </c>
       <c r="G40" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H40" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I40" t="n">
         <v>75.96123154786331</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045142</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561696</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S40" t="n">
-        <v>1110.515389561696</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="T40" t="n">
-        <v>939.8563127171083</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="U40" t="n">
-        <v>654.4323193705143</v>
+        <v>738.7055703569538</v>
       </c>
       <c r="V40" t="n">
-        <v>654.4323193705143</v>
+        <v>738.7055703569538</v>
       </c>
       <c r="W40" t="n">
-        <v>371.1019173016919</v>
+        <v>738.7055703569538</v>
       </c>
       <c r="X40" t="n">
-        <v>371.1019173016919</v>
+        <v>504.6252481399368</v>
       </c>
       <c r="Y40" t="n">
-        <v>371.1019173016919</v>
+        <v>281.5131869565802</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1832.189060981917</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C41" t="n">
-        <v>1439.013559484847</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D41" t="n">
-        <v>1053.572430701515</v>
+        <v>1307.997124214472</v>
       </c>
       <c r="E41" t="n">
-        <v>650.9889058180595</v>
+        <v>905.4135993310169</v>
       </c>
       <c r="F41" t="n">
-        <v>234.0944673480373</v>
+        <v>488.5191608609948</v>
       </c>
       <c r="G41" t="n">
-        <v>234.0944673480373</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="H41" t="n">
-        <v>190.9807864236408</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="I41" t="n">
         <v>75.96123154786331</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874826</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K41" t="n">
-        <v>705.310815113048</v>
+        <v>705.3108151130482</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612515</v>
@@ -7441,22 +7441,22 @@
         <v>3645.330499340861</v>
       </c>
       <c r="T41" t="n">
-        <v>3645.330499340861</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="U41" t="n">
-        <v>3389.626155871369</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="V41" t="n">
-        <v>3389.626155871369</v>
+        <v>3424.477523585811</v>
       </c>
       <c r="W41" t="n">
-        <v>3018.627120839656</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X41" t="n">
-        <v>2629.174515772713</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2232.683806693314</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2306.520858014183</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C42" t="n">
-        <v>2155.866627574275</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D42" t="n">
-        <v>2025.777660195755</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E42" t="n">
-        <v>1889.331169306643</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F42" t="n">
-        <v>1764.899363189775</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G42" t="n">
-        <v>1645.16315580757</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H42" t="n">
-        <v>1559.991135996501</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>1521.745736331025</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J42" t="n">
-        <v>1664.82639383133</v>
+        <v>189.0762137675907</v>
       </c>
       <c r="K42" t="n">
-        <v>2035.781651810598</v>
+        <v>560.0314717468591</v>
       </c>
       <c r="L42" t="n">
-        <v>2519.347737708912</v>
+        <v>1112.463940578414</v>
       </c>
       <c r="M42" t="n">
-        <v>2519.347737708912</v>
+        <v>1112.463940578414</v>
       </c>
       <c r="N42" t="n">
-        <v>2739.891257160889</v>
+        <v>1112.463940578414</v>
       </c>
       <c r="O42" t="n">
-        <v>3331.87451672348</v>
+        <v>1704.447200141005</v>
       </c>
       <c r="P42" t="n">
-        <v>3798.061577393165</v>
+        <v>2117.911981055111</v>
       </c>
       <c r="Q42" t="n">
-        <v>3798.061577393165</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R42" t="n">
-        <v>3794.236775028925</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S42" t="n">
-        <v>3665.317021885005</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T42" t="n">
-        <v>3489.637587679134</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U42" t="n">
-        <v>3279.595734525272</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V42" t="n">
-        <v>3057.055732896339</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W42" t="n">
-        <v>2826.938487029625</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X42" t="n">
-        <v>2637.631409379637</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.317192455144</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="C43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="D43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="E43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F43" t="n">
-        <v>3097.789981368519</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G43" t="n">
-        <v>2929.80723167889</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H43" t="n">
-        <v>2776.740821715703</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I43" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J43" t="n">
-        <v>2651.805253895885</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K43" t="n">
-        <v>2764.533651243069</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L43" t="n">
-        <v>2968.194150890253</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M43" t="n">
-        <v>3196.1675869436</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N43" t="n">
-        <v>3420.047977276961</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O43" t="n">
-        <v>3620.33724375346</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P43" t="n">
-        <v>3772.373441719418</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q43" t="n">
-        <v>3798.061577393165</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R43" t="n">
-        <v>3686.359411909718</v>
+        <v>1110.515389561696</v>
       </c>
       <c r="S43" t="n">
-        <v>3686.359411909718</v>
+        <v>912.4273982201011</v>
       </c>
       <c r="T43" t="n">
-        <v>3538.446318224368</v>
+        <v>677.8675552895622</v>
       </c>
       <c r="U43" t="n">
-        <v>3538.446318224368</v>
+        <v>521.945959020497</v>
       </c>
       <c r="V43" t="n">
-        <v>3538.446318224368</v>
+        <v>521.945959020497</v>
       </c>
       <c r="W43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="X43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
       <c r="Y43" t="n">
-        <v>3255.115916155546</v>
+        <v>521.945959020497</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1879.534856752379</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="C44" t="n">
-        <v>1486.359355255309</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D44" t="n">
-        <v>1100.918226471977</v>
+        <v>1010.458749777119</v>
       </c>
       <c r="E44" t="n">
-        <v>921.4275898611515</v>
+        <v>607.875224893663</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611515</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="G44" t="n">
-        <v>508.86966054802</v>
+        <v>190.9807864236408</v>
       </c>
       <c r="H44" t="n">
         <v>190.9807864236408</v>
@@ -7675,25 +7675,25 @@
         <v>3798.061577393165</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340861</v>
+        <v>3772.001101970926</v>
       </c>
       <c r="T44" t="n">
-        <v>3645.330499340861</v>
+        <v>3551.148126215876</v>
       </c>
       <c r="U44" t="n">
-        <v>3389.626155871369</v>
+        <v>3295.443782746384</v>
       </c>
       <c r="V44" t="n">
-        <v>3047.519346574887</v>
+        <v>2953.336973449902</v>
       </c>
       <c r="W44" t="n">
-        <v>2676.520311543175</v>
+        <v>2582.33793841819</v>
       </c>
       <c r="X44" t="n">
-        <v>2676.520311543175</v>
+        <v>2192.885333351247</v>
       </c>
       <c r="Y44" t="n">
-        <v>2280.029602463776</v>
+        <v>1796.394624271848</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786331</v>
       </c>
       <c r="J45" t="n">
-        <v>219.0418890481677</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K45" t="n">
-        <v>589.9971470274361</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="L45" t="n">
-        <v>1142.429615858991</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="M45" t="n">
-        <v>1850.56508615133</v>
+        <v>280.9863166106127</v>
       </c>
       <c r="N45" t="n">
-        <v>1850.56508615133</v>
+        <v>1019.255099689838</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252429</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922114</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.7769162766213</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="C46" t="n">
-        <v>220.7769162766213</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="D46" t="n">
-        <v>200.8967993676811</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8967993676811</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="F46" t="n">
-        <v>200.8967993676811</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="G46" t="n">
-        <v>200.8967993676811</v>
+        <v>353.9632093308678</v>
       </c>
       <c r="H46" t="n">
         <v>200.8967993676811</v>
@@ -7833,25 +7833,25 @@
         <v>1110.515389561696</v>
       </c>
       <c r="S46" t="n">
-        <v>912.4273982201015</v>
+        <v>1110.515389561696</v>
       </c>
       <c r="T46" t="n">
-        <v>912.4273982201015</v>
+        <v>1110.515389561696</v>
       </c>
       <c r="U46" t="n">
-        <v>912.4273982201015</v>
+        <v>825.0913962151023</v>
       </c>
       <c r="V46" t="n">
-        <v>912.4273982201015</v>
+        <v>825.0913962151023</v>
       </c>
       <c r="W46" t="n">
-        <v>629.0969961512792</v>
+        <v>825.0913962151023</v>
       </c>
       <c r="X46" t="n">
-        <v>629.0969961512792</v>
+        <v>591.0110739980854</v>
       </c>
       <c r="Y46" t="n">
-        <v>405.9849349679225</v>
+        <v>367.8990128147287</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>133.4455245943154</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,10 +8069,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8297,7 +8297,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8312,10 +8312,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8537,7 +8537,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>288.3536975034276</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
@@ -8546,10 +8546,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8774,16 +8774,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>113.1213157207765</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>161.3045439925963</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>551.339579962737</v>
       </c>
       <c r="N15" t="n">
-        <v>71.06488347458392</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>570.5574999602385</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9251,10 +9251,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>262.4090966030145</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>71.06488347458392</v>
+        <v>274.5296659053818</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9482,19 +9482,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>78.11614222553752</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>113.490221667274</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>500.4717611453249</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406371</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248288</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>161.7671092848888</v>
       </c>
       <c r="M24" t="n">
-        <v>258.2578848049969</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4623296246361</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406371</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248288</v>
+        <v>92.25094156679963</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>218.3075911372836</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10190,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406371</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>20.49834389404775</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10208,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>64.83484002983818</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>20.49834389404775</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>11.21154561935481</v>
+        <v>299.4831675672407</v>
       </c>
       <c r="N33" t="n">
-        <v>518.9660044323502</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248288</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>20.49834389404775</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>432.5851829082346</v>
+        <v>722.4415008429032</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995636</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10907,19 +10907,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>20.49834389404775</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>485.7009534934963</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>2.048060461574877</v>
+        <v>344.7923240171574</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11150,7 +11150,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>308.1433446238407</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>299.4831675672406</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461574821</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>523.242113926325</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983265</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>11.68285905318214</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>319.7892792266961</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>132.9900209556171</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.15461412430832</v>
       </c>
       <c r="S11" t="n">
         <v>162.5055525480064</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V11" t="n">
-        <v>206.4678647289217</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23418,13 +23418,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2412755965505</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>83.52351039680232</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -23436,10 +23436,10 @@
         <v>153.5137285205241</v>
       </c>
       <c r="I13" t="n">
-        <v>130.3765665682598</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.81389666635066</v>
+        <v>26.81389666635061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>233.1648087637851</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>223.0139184622907</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>125.3854160265947</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>319.7892792266961</v>
       </c>
       <c r="I14" t="n">
-        <v>132.9900209556172</v>
+        <v>132.9900209556171</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.15461412430843</v>
+        <v>31.15461412430832</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>127.5388250819678</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
@@ -23670,13 +23670,13 @@
         <v>166.5253946797129</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5137285205241</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>130.3765665682598</v>
       </c>
       <c r="J16" t="n">
-        <v>26.81389666635067</v>
+        <v>26.81389666635061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.5883158341026</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.984200133097</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>282.5818882760543</v>
       </c>
       <c r="V16" t="n">
-        <v>114.2801701308542</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>319.7892792266961</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.15461412430843</v>
+        <v>31.15461412430832</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>67.44298208437667</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>304.6195004375536</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23910,10 +23910,10 @@
         <v>153.5137285205241</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3765665682598</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>26.81389666635067</v>
+        <v>26.81389666635061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>120.5883158341026</v>
       </c>
       <c r="S19" t="n">
         <v>199.984200133097</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>176.8044908338708</v>
       </c>
       <c r="X19" t="n">
-        <v>164.7153639050552</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>365.1207021027125</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>319.7892792266961</v>
       </c>
       <c r="I20" t="n">
-        <v>19.16455777792791</v>
+        <v>132.9900209556171</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.5055525480064</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U20" t="n">
         <v>253.1869771745492</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24150,7 +24150,7 @@
         <v>130.3765665682598</v>
       </c>
       <c r="J22" t="n">
-        <v>26.81389666635066</v>
+        <v>26.81389666635061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.5883158341026</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.984200133097</v>
       </c>
       <c r="T22" t="n">
         <v>233.1648087637851</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>164.1660792130137</v>
+        <v>244.2101475581595</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118.959830155363</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>100.6766793060469</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>44.2549959276739</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>123.6862121416196</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24432,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.81629854929582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270197</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T26" t="n">
-        <v>38.38016980124669</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>366.3137525182021</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416196</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T28" t="n">
-        <v>230.4991426843644</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>15.72647581451719</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>337.7104490403236</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717815</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>177.8406936960225</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>151.5357458635549</v>
@@ -24861,7 +24861,7 @@
         <v>123.6862121416196</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685221</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>191.5605056771058</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.8103298427593</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>116.0899534512429</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>314.7099853831354</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>268.7631200249635</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>89.27922363110534</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>151.5357458635549</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6689082660829</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>337.9828343599013</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I35" t="n">
         <v>113.8693593270197</v>
@@ -25207,16 +25207,16 @@
         <v>151.2037672717815</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>100.6766793060468</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>181.7415636310769</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>155.5464064224201</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>34.40880828047193</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831354</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>113.8693593270197</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>96.66079964307841</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>146.1624248424913</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25563,13 +25563,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.6862121416196</v>
       </c>
       <c r="J40" t="n">
         <v>11.08509183685221</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>63.26175842509173</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.0274412679829</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>113.8693593270197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>217.3775925405301</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>85.7802817527371</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>128.2073731067535</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>220.8619593899039</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831354</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>125.4038966037644</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>169.5594930553659</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>134.3954662266596</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26040,7 +26040,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>533418.2123712776</v>
+        <v>533418.212371278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>533418.2123712777</v>
+        <v>533418.2123712779</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>590365.6828179928</v>
+        <v>590365.6828179926</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590365.6828179928</v>
+        <v>590365.6828179926</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>590365.6828179928</v>
+        <v>590365.6828179926</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590365.6828179928</v>
+        <v>590365.6828179926</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>590365.6828179926</v>
+        <v>590365.6828179929</v>
       </c>
     </row>
   </sheetData>
@@ -26322,19 +26322,19 @@
         <v>522963.3164707343</v>
       </c>
       <c r="E2" t="n">
+        <v>377295.8087504159</v>
+      </c>
+      <c r="F2" t="n">
+        <v>377295.8087504158</v>
+      </c>
+      <c r="G2" t="n">
         <v>377295.8087504157</v>
       </c>
-      <c r="F2" t="n">
-        <v>377295.8087504157</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>377295.8087504156</v>
       </c>
-      <c r="H2" t="n">
-        <v>377295.8087504157</v>
-      </c>
       <c r="I2" t="n">
-        <v>417575.7268712631</v>
+        <v>417575.726871263</v>
       </c>
       <c r="J2" t="n">
         <v>417575.7268712631</v>
@@ -26346,13 +26346,13 @@
         <v>417575.7268712632</v>
       </c>
       <c r="M2" t="n">
-        <v>417575.7268712632</v>
+        <v>417575.7268712631</v>
       </c>
       <c r="N2" t="n">
         <v>417575.7268712631</v>
       </c>
       <c r="O2" t="n">
-        <v>417575.7268712631</v>
+        <v>417575.7268712629</v>
       </c>
       <c r="P2" t="n">
         <v>417575.7268712631</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29417.59821721568</v>
+        <v>29417.59821721615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>130978.388130729</v>
+        <v>130978.3881307285</v>
       </c>
       <c r="J3" t="n">
         <v>203163.713112695</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7403.759137485038</v>
+        <v>7403.759137485062</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>563.9316428891591</v>
+        <v>563.9316428891593</v>
       </c>
       <c r="F4" t="n">
-        <v>563.9316428891591</v>
+        <v>563.9316428891594</v>
       </c>
       <c r="G4" t="n">
-        <v>563.9316428891591</v>
+        <v>563.9316428891593</v>
       </c>
       <c r="H4" t="n">
-        <v>563.9316428891591</v>
+        <v>563.9316428891593</v>
       </c>
       <c r="I4" t="n">
-        <v>636.825955991296</v>
+        <v>636.8259559912959</v>
       </c>
       <c r="J4" t="n">
         <v>636.825955991296</v>
       </c>
       <c r="K4" t="n">
-        <v>636.8259559912959</v>
+        <v>636.825955991296</v>
       </c>
       <c r="L4" t="n">
         <v>636.825955991296</v>
@@ -26453,10 +26453,10 @@
         <v>636.825955991296</v>
       </c>
       <c r="N4" t="n">
-        <v>636.825955991296</v>
+        <v>636.8259559912959</v>
       </c>
       <c r="O4" t="n">
-        <v>636.825955991296</v>
+        <v>636.8259559912959</v>
       </c>
       <c r="P4" t="n">
         <v>636.825955991296</v>
@@ -26478,16 +26478,16 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>49574.41561916298</v>
+        <v>49574.41561916301</v>
       </c>
       <c r="F5" t="n">
-        <v>49574.41561916298</v>
+        <v>49574.41561916301</v>
       </c>
       <c r="G5" t="n">
-        <v>49574.41561916298</v>
+        <v>49574.41561916301</v>
       </c>
       <c r="H5" t="n">
-        <v>49574.41561916298</v>
+        <v>49574.41561916301</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357439</v>
@@ -26499,10 +26499,10 @@
         <v>60977.55903357439</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357438</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="M5" t="n">
-        <v>60977.5590335744</v>
+        <v>60977.55903357439</v>
       </c>
       <c r="N5" t="n">
         <v>60977.55903357439</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60104.3801137282</v>
+        <v>60104.38011372817</v>
       </c>
       <c r="C6" t="n">
         <v>320323.735533557</v>
@@ -26530,40 +26530,40 @@
         <v>320323.7355335569</v>
       </c>
       <c r="E6" t="n">
-        <v>297739.8632711479</v>
+        <v>297237.5615203878</v>
       </c>
       <c r="F6" t="n">
-        <v>327157.4614883636</v>
+        <v>326655.1597376039</v>
       </c>
       <c r="G6" t="n">
-        <v>327157.4614883635</v>
+        <v>326655.1597376039</v>
       </c>
       <c r="H6" t="n">
-        <v>327157.4614883636</v>
+        <v>326655.1597376037</v>
       </c>
       <c r="I6" t="n">
-        <v>224982.9537509684</v>
+        <v>224619.5482695913</v>
       </c>
       <c r="J6" t="n">
-        <v>152797.6287690024</v>
+        <v>152434.2232876249</v>
       </c>
       <c r="K6" t="n">
-        <v>355961.3418816975</v>
+        <v>355597.93640032</v>
       </c>
       <c r="L6" t="n">
-        <v>355961.3418816976</v>
+        <v>355597.93640032</v>
       </c>
       <c r="M6" t="n">
-        <v>348557.5827442125</v>
+        <v>348194.1772628349</v>
       </c>
       <c r="N6" t="n">
-        <v>355961.3418816974</v>
+        <v>355597.9364003199</v>
       </c>
       <c r="O6" t="n">
-        <v>355961.3418816974</v>
+        <v>355597.9364003198</v>
       </c>
       <c r="P6" t="n">
-        <v>355961.3418816974</v>
+        <v>355597.9364003199</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.574905381807</v>
+        <v>25.5749053818074</v>
       </c>
       <c r="F3" t="n">
-        <v>25.57490538180695</v>
+        <v>25.5749053818074</v>
       </c>
       <c r="G3" t="n">
-        <v>25.57490538180695</v>
+        <v>25.5749053818074</v>
       </c>
       <c r="H3" t="n">
-        <v>25.574905381807</v>
+        <v>25.5749053818074</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980865</v>
@@ -26798,16 +26798,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>806.1987283197301</v>
+        <v>806.1987283197305</v>
       </c>
       <c r="F4" t="n">
-        <v>806.1987283197301</v>
+        <v>806.1987283197305</v>
       </c>
       <c r="G4" t="n">
-        <v>806.1987283197301</v>
+        <v>806.1987283197305</v>
       </c>
       <c r="H4" t="n">
-        <v>806.1987283197301</v>
+        <v>806.1987283197305</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482912</v>
@@ -26819,10 +26819,10 @@
         <v>949.5153943482912</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482911</v>
+        <v>949.5153943482912</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482915</v>
+        <v>949.5153943482912</v>
       </c>
       <c r="N4" t="n">
         <v>949.5153943482912</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.574905381807</v>
+        <v>25.5749053818074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.3711064162795</v>
+        <v>123.3711064162791</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.70963201828599</v>
+        <v>29.70963201828647</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>143.3166660285611</v>
+        <v>143.3166660285607</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828637</v>
+        <v>29.70963201828647</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828599</v>
+        <v>29.70963201828647</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>119.2919631337706</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>47.63959862482517</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>130.5866753515629</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27596,13 +27596,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116.4301578064118</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27669,19 +27669,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>136.2653563034891</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.16178991610917</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27782,22 +27782,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.5135730706081</v>
+        <v>32.77733858991891</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.02589725180511</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.7492947270335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>66.4837678955555</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>89.10168802278396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28070,13 +28070,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1028136899771135</v>
+        <v>0.1028136899771151</v>
       </c>
       <c r="H11" t="n">
-        <v>1.052940702478114</v>
+        <v>1.052940702478131</v>
       </c>
       <c r="I11" t="n">
-        <v>3.963724782842672</v>
+        <v>3.963724782842734</v>
       </c>
       <c r="J11" t="n">
-        <v>8.726183419695044</v>
+        <v>8.726183419695182</v>
       </c>
       <c r="K11" t="n">
-        <v>13.07828691642626</v>
+        <v>13.07828691642647</v>
       </c>
       <c r="L11" t="n">
-        <v>16.22477138106335</v>
+        <v>16.22477138106361</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05318434019384</v>
+        <v>18.05318434019413</v>
       </c>
       <c r="N11" t="n">
-        <v>18.34530373684132</v>
+        <v>18.34530373684161</v>
       </c>
       <c r="O11" t="n">
-        <v>17.32295010713139</v>
+        <v>17.32295010713167</v>
       </c>
       <c r="P11" t="n">
-        <v>14.7847371358214</v>
+        <v>14.78473713582164</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.10272186351602</v>
+        <v>11.1027218635162</v>
       </c>
       <c r="R11" t="n">
-        <v>6.458370453024861</v>
+        <v>6.458370453024963</v>
       </c>
       <c r="S11" t="n">
-        <v>2.342866960353476</v>
+        <v>2.342866960353513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4500669278748145</v>
+        <v>0.4500669278748217</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008225095198169077</v>
+        <v>0.008225095198169208</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05501017384011317</v>
+        <v>0.05501017384011404</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5312824684031984</v>
+        <v>0.5312824684032067</v>
       </c>
       <c r="I12" t="n">
-        <v>1.893990634407405</v>
+        <v>1.893990634407436</v>
       </c>
       <c r="J12" t="n">
-        <v>5.19725506442929</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>8.882936711716871</v>
+        <v>8.882936711717011</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>11.9442046313809</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>13.93832343308503</v>
       </c>
       <c r="N12" t="n">
-        <v>14.30722937958277</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10.5045304765388</v>
+        <v>10.50453047653897</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.02200043615199</v>
+        <v>7.022000436152102</v>
       </c>
       <c r="R12" t="n">
-        <v>3.415456231932642</v>
+        <v>3.415456231932696</v>
       </c>
       <c r="S12" t="n">
-        <v>1.021789851810873</v>
+        <v>1.021789851810889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.221729604206421</v>
+        <v>0.2217296042064245</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003619090384217973</v>
+        <v>0.00361909038421803</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0461186818360454</v>
+        <v>0.04611868183604614</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4100370075968404</v>
+        <v>0.4100370075968469</v>
       </c>
       <c r="I13" t="n">
-        <v>1.386914541033075</v>
+        <v>1.386914541033097</v>
       </c>
       <c r="J13" t="n">
-        <v>3.26059080580841</v>
+        <v>3.260590805808461</v>
       </c>
       <c r="K13" t="n">
-        <v>5.358152307860546</v>
+        <v>5.358152307860632</v>
       </c>
       <c r="L13" t="n">
-        <v>6.85659020678806</v>
+        <v>6.856590206788169</v>
       </c>
       <c r="M13" t="n">
-        <v>7.229313008172098</v>
+        <v>7.229313008172213</v>
       </c>
       <c r="N13" t="n">
-        <v>7.057416103146844</v>
+        <v>7.057416103146956</v>
       </c>
       <c r="O13" t="n">
-        <v>6.518666047153038</v>
+        <v>6.518666047153141</v>
       </c>
       <c r="P13" t="n">
-        <v>5.577844937697708</v>
+        <v>5.577844937697796</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.861810712652857</v>
+        <v>3.861810712652918</v>
       </c>
       <c r="R13" t="n">
-        <v>2.073663639646186</v>
+        <v>2.073663639646219</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8037228461790819</v>
+        <v>0.8037228461790946</v>
       </c>
       <c r="T13" t="n">
-        <v>0.197052549663103</v>
+        <v>0.1970525496631061</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002515564463784298</v>
+        <v>0.002515564463784337</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1028136899771133</v>
+        <v>0.1028136899771151</v>
       </c>
       <c r="H14" t="n">
-        <v>1.052940702478112</v>
+        <v>1.05294070247813</v>
       </c>
       <c r="I14" t="n">
-        <v>3.963724782842664</v>
+        <v>3.963724782842734</v>
       </c>
       <c r="J14" t="n">
-        <v>8.726183419695028</v>
+        <v>8.726183419695181</v>
       </c>
       <c r="K14" t="n">
-        <v>13.07828691642624</v>
+        <v>13.07828691642647</v>
       </c>
       <c r="L14" t="n">
-        <v>16.22477138106332</v>
+        <v>16.2247713810636</v>
       </c>
       <c r="M14" t="n">
-        <v>18.05318434019381</v>
+        <v>18.05318434019413</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34530373684128</v>
+        <v>18.3453037368416</v>
       </c>
       <c r="O14" t="n">
-        <v>17.32295010713136</v>
+        <v>17.32295010713166</v>
       </c>
       <c r="P14" t="n">
-        <v>14.78473713582138</v>
+        <v>14.78473713582163</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.102721863516</v>
+        <v>11.1027218635162</v>
       </c>
       <c r="R14" t="n">
-        <v>6.458370453024849</v>
+        <v>6.458370453024962</v>
       </c>
       <c r="S14" t="n">
-        <v>2.342866960353472</v>
+        <v>2.342866960353513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4500669278748137</v>
+        <v>0.4500669278748216</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008225095198169063</v>
+        <v>0.008225095198169207</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05501017384011307</v>
+        <v>0.05501017384011404</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5312824684031974</v>
+        <v>0.5312824684032067</v>
       </c>
       <c r="I15" t="n">
-        <v>1.893990634407402</v>
+        <v>1.893990634407435</v>
       </c>
       <c r="J15" t="n">
-        <v>5.19725506442928</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.882936711716855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.94420463138069</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93832343308479</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.30722937958274</v>
+        <v>14.30722937958299</v>
       </c>
       <c r="O15" t="n">
-        <v>13.08831973817813</v>
+        <v>13.08831973817836</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10.50453047653897</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.022000436151978</v>
+        <v>7.0220004361521</v>
       </c>
       <c r="R15" t="n">
-        <v>3.415456231932636</v>
+        <v>3.415456231932696</v>
       </c>
       <c r="S15" t="n">
-        <v>1.021789851810871</v>
+        <v>1.021789851810889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2217296042064206</v>
+        <v>0.2217296042064245</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003619090384217967</v>
+        <v>0.00361909038421803</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611868183604532</v>
+        <v>0.04611868183604613</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4100370075968396</v>
+        <v>0.4100370075968468</v>
       </c>
       <c r="I16" t="n">
-        <v>1.386914541033073</v>
+        <v>1.386914541033097</v>
       </c>
       <c r="J16" t="n">
-        <v>3.260590805808404</v>
+        <v>3.260590805808461</v>
       </c>
       <c r="K16" t="n">
-        <v>5.358152307860537</v>
+        <v>5.358152307860631</v>
       </c>
       <c r="L16" t="n">
-        <v>6.856590206788049</v>
+        <v>6.856590206788169</v>
       </c>
       <c r="M16" t="n">
-        <v>7.229313008172086</v>
+        <v>7.229313008172212</v>
       </c>
       <c r="N16" t="n">
-        <v>7.057416103146831</v>
+        <v>7.057416103146955</v>
       </c>
       <c r="O16" t="n">
-        <v>6.518666047153027</v>
+        <v>6.518666047153141</v>
       </c>
       <c r="P16" t="n">
-        <v>5.577844937697697</v>
+        <v>5.577844937697795</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.86181071265285</v>
+        <v>3.861810712652917</v>
       </c>
       <c r="R16" t="n">
-        <v>2.073663639646183</v>
+        <v>2.073663639646219</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8037228461790804</v>
+        <v>0.8037228461790945</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1970525496631027</v>
+        <v>0.1970525496631061</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002515564463784293</v>
+        <v>0.002515564463784337</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028136899771133</v>
+        <v>0.1028136899771151</v>
       </c>
       <c r="H17" t="n">
-        <v>1.052940702478112</v>
+        <v>1.05294070247813</v>
       </c>
       <c r="I17" t="n">
-        <v>3.963724782842664</v>
+        <v>3.963724782842734</v>
       </c>
       <c r="J17" t="n">
-        <v>8.726183419695028</v>
+        <v>8.726183419695181</v>
       </c>
       <c r="K17" t="n">
-        <v>13.07828691642624</v>
+        <v>13.07828691642647</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22477138106332</v>
+        <v>16.2247713810636</v>
       </c>
       <c r="M17" t="n">
-        <v>18.05318434019381</v>
+        <v>18.05318434019413</v>
       </c>
       <c r="N17" t="n">
-        <v>18.34530373684128</v>
+        <v>18.3453037368416</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32295010713136</v>
+        <v>17.32295010713166</v>
       </c>
       <c r="P17" t="n">
-        <v>14.78473713582138</v>
+        <v>14.78473713582163</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.102721863516</v>
+        <v>11.1027218635162</v>
       </c>
       <c r="R17" t="n">
-        <v>6.458370453024849</v>
+        <v>6.458370453024962</v>
       </c>
       <c r="S17" t="n">
-        <v>2.342866960353472</v>
+        <v>2.342866960353513</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4500669278748137</v>
+        <v>0.4500669278748216</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008225095198169063</v>
+        <v>0.008225095198169207</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05501017384011307</v>
+        <v>0.05501017384011404</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5312824684031974</v>
+        <v>0.5312824684032067</v>
       </c>
       <c r="I18" t="n">
-        <v>1.893990634407402</v>
+        <v>1.893990634407435</v>
       </c>
       <c r="J18" t="n">
-        <v>5.19725506442928</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.882936711716855</v>
+        <v>8.882936711717011</v>
       </c>
       <c r="L18" t="n">
-        <v>11.94420463138069</v>
+        <v>11.9442046313809</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93832343308479</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14.30722937958274</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>13.08831973817813</v>
+        <v>13.08831973817836</v>
       </c>
       <c r="P18" t="n">
-        <v>10.50453047653879</v>
+        <v>10.50453047653897</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.022000436151978</v>
+        <v>7.0220004361521</v>
       </c>
       <c r="R18" t="n">
-        <v>3.415456231932636</v>
+        <v>3.415456231932696</v>
       </c>
       <c r="S18" t="n">
-        <v>1.021789851810871</v>
+        <v>1.021789851810889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2217296042064206</v>
+        <v>0.2217296042064245</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003619090384217967</v>
+        <v>0.00361909038421803</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04611868183604532</v>
+        <v>0.04611868183604613</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4100370075968396</v>
+        <v>0.4100370075968468</v>
       </c>
       <c r="I19" t="n">
-        <v>1.386914541033073</v>
+        <v>1.386914541033097</v>
       </c>
       <c r="J19" t="n">
-        <v>3.260590805808404</v>
+        <v>3.260590805808461</v>
       </c>
       <c r="K19" t="n">
-        <v>5.358152307860537</v>
+        <v>5.358152307860631</v>
       </c>
       <c r="L19" t="n">
-        <v>6.856590206788049</v>
+        <v>6.856590206788169</v>
       </c>
       <c r="M19" t="n">
-        <v>7.229313008172086</v>
+        <v>7.229313008172212</v>
       </c>
       <c r="N19" t="n">
-        <v>7.057416103146831</v>
+        <v>7.057416103146955</v>
       </c>
       <c r="O19" t="n">
-        <v>6.518666047153027</v>
+        <v>6.518666047153141</v>
       </c>
       <c r="P19" t="n">
-        <v>5.577844937697697</v>
+        <v>5.577844937697795</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.86181071265285</v>
+        <v>3.861810712652917</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073663639646183</v>
+        <v>2.073663639646219</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8037228461790804</v>
+        <v>0.8037228461790945</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1970525496631027</v>
+        <v>0.1970525496631061</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002515564463784293</v>
+        <v>0.002515564463784337</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1028136899771135</v>
+        <v>0.1028136899771151</v>
       </c>
       <c r="H20" t="n">
-        <v>1.052940702478114</v>
+        <v>1.05294070247813</v>
       </c>
       <c r="I20" t="n">
-        <v>3.963724782842672</v>
+        <v>3.963724782842734</v>
       </c>
       <c r="J20" t="n">
-        <v>8.726183419695046</v>
+        <v>8.726183419695181</v>
       </c>
       <c r="K20" t="n">
-        <v>13.07828691642626</v>
+        <v>13.07828691642647</v>
       </c>
       <c r="L20" t="n">
-        <v>16.22477138106335</v>
+        <v>16.2247713810636</v>
       </c>
       <c r="M20" t="n">
-        <v>18.05318434019384</v>
+        <v>18.05318434019413</v>
       </c>
       <c r="N20" t="n">
-        <v>18.34530373684132</v>
+        <v>18.3453037368416</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3229501071314</v>
+        <v>17.32295010713166</v>
       </c>
       <c r="P20" t="n">
-        <v>14.7847371358214</v>
+        <v>14.78473713582163</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.10272186351602</v>
+        <v>11.1027218635162</v>
       </c>
       <c r="R20" t="n">
-        <v>6.458370453024862</v>
+        <v>6.458370453024962</v>
       </c>
       <c r="S20" t="n">
-        <v>2.342866960353476</v>
+        <v>2.342866960353513</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4500669278748146</v>
+        <v>0.4500669278748216</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008225095198169078</v>
+        <v>0.008225095198169207</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05501017384011318</v>
+        <v>0.05501017384011404</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5312824684031984</v>
+        <v>0.5312824684032067</v>
       </c>
       <c r="I21" t="n">
-        <v>1.893990634407406</v>
+        <v>1.893990634407435</v>
       </c>
       <c r="J21" t="n">
-        <v>5.197255064429291</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.882936711716873</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>11.94420463138072</v>
+        <v>11.9442046313809</v>
       </c>
       <c r="M21" t="n">
-        <v>13.93832343308481</v>
+        <v>13.93832343308503</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -32569,22 +32569,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>10.50453047653881</v>
+        <v>10.50453047653897</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.022000436151991</v>
+        <v>7.0220004361521</v>
       </c>
       <c r="R21" t="n">
-        <v>3.415456231932642</v>
+        <v>3.415456231932696</v>
       </c>
       <c r="S21" t="n">
-        <v>1.021789851810873</v>
+        <v>1.021789851810889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.221729604206421</v>
+        <v>0.2217296042064245</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003619090384217974</v>
+        <v>0.00361909038421803</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04611868183604541</v>
+        <v>0.04611868183604613</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4100370075968404</v>
+        <v>0.4100370075968468</v>
       </c>
       <c r="I22" t="n">
-        <v>1.386914541033075</v>
+        <v>1.386914541033097</v>
       </c>
       <c r="J22" t="n">
-        <v>3.26059080580841</v>
+        <v>3.260590805808461</v>
       </c>
       <c r="K22" t="n">
-        <v>5.358152307860547</v>
+        <v>5.358152307860631</v>
       </c>
       <c r="L22" t="n">
-        <v>6.856590206788062</v>
+        <v>6.856590206788169</v>
       </c>
       <c r="M22" t="n">
-        <v>7.229313008172099</v>
+        <v>7.229313008172212</v>
       </c>
       <c r="N22" t="n">
-        <v>7.057416103146845</v>
+        <v>7.057416103146955</v>
       </c>
       <c r="O22" t="n">
-        <v>6.518666047153039</v>
+        <v>6.518666047153141</v>
       </c>
       <c r="P22" t="n">
-        <v>5.577844937697708</v>
+        <v>5.577844937697795</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.861810712652857</v>
+        <v>3.861810712652917</v>
       </c>
       <c r="R22" t="n">
-        <v>2.073663639646187</v>
+        <v>2.073663639646219</v>
       </c>
       <c r="S22" t="n">
-        <v>0.803722846179082</v>
+        <v>0.8037228461790945</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1970525496631031</v>
+        <v>0.1970525496631061</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002515564463784298</v>
+        <v>0.002515564463784337</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>51.73344638085047</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287048</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>81.1755764299571</v>
@@ -32803,10 +32803,10 @@
         <v>83.32405239259178</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425279</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948197</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>40.89551629595763</v>
@@ -33025,13 +33025,13 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085047</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M27" t="n">
         <v>81.1755764299571</v>
@@ -33040,10 +33040,10 @@
         <v>83.32405239259178</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425279</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948197</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>40.89551629595763</v>
@@ -33262,28 +33262,28 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287048</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>81.1755764299571</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259178</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>10.16048178205335</v>
       </c>
       <c r="P30" t="n">
         <v>61.17746661948197</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595763</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.89131833031805</v>
@@ -33499,19 +33499,19 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085047</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287048</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>81.1755764299571</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>83.32405239259178</v>
       </c>
       <c r="O33" t="n">
         <v>76.22522926425279</v>
@@ -33736,28 +33736,28 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085047</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287048</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>81.1755764299571</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259178</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425279</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948197</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595763</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>19.89131833031805</v>
@@ -33973,7 +33973,7 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>51.73344638085047</v>
@@ -33985,16 +33985,16 @@
         <v>81.1755764299571</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259178</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425279</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948197</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>40.89551629595763</v>
       </c>
       <c r="R39" t="n">
         <v>19.89131833031805</v>
@@ -34210,13 +34210,13 @@
         <v>11.03043577938659</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926963</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>51.73344638085047</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>69.56200296287048</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34228,7 +34228,7 @@
         <v>76.22522926425279</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948197</v>
+        <v>7.922638583544085</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34447,16 +34447,16 @@
         <v>11.0304357793866</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926965</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085049</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287052</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995716</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>83.32405239259184</v>
@@ -34468,7 +34468,7 @@
         <v>61.177466619482</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.89551629595766</v>
       </c>
       <c r="R45" t="n">
         <v>19.89131833031806</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>51.00106726098205</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,10 +34789,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -35017,7 +35017,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35032,10 +35032,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>198.2933506465093</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
@@ -35266,10 +35266,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>154.837065145784</v>
+        <v>154.8370651457842</v>
       </c>
       <c r="K11" t="n">
-        <v>375.6867273482059</v>
+        <v>375.6867273482061</v>
       </c>
       <c r="L11" t="n">
-        <v>514.5280963492743</v>
+        <v>514.5280963492746</v>
       </c>
       <c r="M11" t="n">
-        <v>569.5692449912854</v>
+        <v>569.5692449912856</v>
       </c>
       <c r="N11" t="n">
-        <v>551.4880144817524</v>
+        <v>551.4880144817528</v>
       </c>
       <c r="O11" t="n">
-        <v>461.8073954529177</v>
+        <v>461.8073954529179</v>
       </c>
       <c r="P11" t="n">
-        <v>366.4892746424091</v>
+        <v>366.4892746424093</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.8154088745752</v>
+        <v>197.8154088745753</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4548128621337</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>331.8517711180062</v>
+        <v>331.8517711180064</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3947964478589</v>
       </c>
       <c r="M12" t="n">
-        <v>20.73419367146457</v>
+        <v>648.0511008337731</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7092205013596</v>
+        <v>75.93243113842962</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>420.2230847355261</v>
+        <v>420.2230847355262</v>
       </c>
       <c r="Q12" t="n">
-        <v>243.7544161481626</v>
+        <v>243.7544161481627</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>88.01980999467052</v>
+        <v>88.01980999467061</v>
       </c>
       <c r="L13" t="n">
         <v>172.6420850288081</v>
       </c>
       <c r="M13" t="n">
-        <v>195.402624460964</v>
+        <v>195.4026244609641</v>
       </c>
       <c r="N13" t="n">
-        <v>192.0974504781056</v>
+        <v>192.0974504781057</v>
       </c>
       <c r="O13" t="n">
-        <v>170.8669155842319</v>
+        <v>170.866915584232</v>
       </c>
       <c r="P13" t="n">
-        <v>126.6648810756559</v>
+        <v>126.664881075656</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.31857472280534</v>
+        <v>7.318574722805401</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>154.837065145784</v>
+        <v>154.8370651457842</v>
       </c>
       <c r="K14" t="n">
-        <v>375.6867273482059</v>
+        <v>375.6867273482061</v>
       </c>
       <c r="L14" t="n">
-        <v>514.5280963492743</v>
+        <v>514.5280963492746</v>
       </c>
       <c r="M14" t="n">
-        <v>569.5692449912854</v>
+        <v>569.5692449912856</v>
       </c>
       <c r="N14" t="n">
-        <v>551.4880144817524</v>
+        <v>551.4880144817528</v>
       </c>
       <c r="O14" t="n">
-        <v>461.8073954529177</v>
+        <v>461.8073954529179</v>
       </c>
       <c r="P14" t="n">
-        <v>366.4892746424091</v>
+        <v>366.4892746424093</v>
       </c>
       <c r="Q14" t="n">
-        <v>197.8154088745751</v>
+        <v>197.8154088745753</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.4548128621337</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>331.8517711180062</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3947964478587</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>648.0511008337728</v>
+        <v>458.9524579134251</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>676.7092205013598</v>
       </c>
       <c r="O15" t="n">
-        <v>490.9582608095278</v>
+        <v>534.8259789209875</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>420.2230847355262</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.7544161481626</v>
+        <v>243.7544161481627</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>88.01980999467051</v>
+        <v>88.01980999467061</v>
       </c>
       <c r="L16" t="n">
-        <v>172.642085028808</v>
+        <v>172.6420850288081</v>
       </c>
       <c r="M16" t="n">
-        <v>195.402624460964</v>
+        <v>195.4026244609641</v>
       </c>
       <c r="N16" t="n">
-        <v>192.0974504781056</v>
+        <v>192.0974504781057</v>
       </c>
       <c r="O16" t="n">
-        <v>170.8669155842319</v>
+        <v>170.866915584232</v>
       </c>
       <c r="P16" t="n">
-        <v>126.6648810756559</v>
+        <v>126.664881075656</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.318574722805333</v>
+        <v>7.3185747228054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>154.837065145784</v>
+        <v>154.8370651457842</v>
       </c>
       <c r="K17" t="n">
-        <v>375.6867273482059</v>
+        <v>375.6867273482061</v>
       </c>
       <c r="L17" t="n">
-        <v>514.5280963492743</v>
+        <v>514.5280963492746</v>
       </c>
       <c r="M17" t="n">
-        <v>569.5692449912854</v>
+        <v>569.5692449912856</v>
       </c>
       <c r="N17" t="n">
-        <v>551.4880144817524</v>
+        <v>551.4880144817528</v>
       </c>
       <c r="O17" t="n">
-        <v>461.8073954529177</v>
+        <v>461.8073954529179</v>
       </c>
       <c r="P17" t="n">
-        <v>366.4892746424091</v>
+        <v>366.4892746424093</v>
       </c>
       <c r="Q17" t="n">
-        <v>197.8154088745751</v>
+        <v>197.8154088745753</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.4548128621337</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>331.8517711180062</v>
+        <v>331.8517711180064</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3947964478587</v>
+        <v>500.3947964478589</v>
       </c>
       <c r="M18" t="n">
-        <v>183.9602979867874</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>189.1575530512152</v>
       </c>
       <c r="O18" t="n">
-        <v>534.8259789209873</v>
+        <v>534.8259789209875</v>
       </c>
       <c r="P18" t="n">
-        <v>420.2230847355261</v>
+        <v>420.2230847355262</v>
       </c>
       <c r="Q18" t="n">
-        <v>243.7544161481626</v>
+        <v>243.7544161481627</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.01980999467051</v>
+        <v>88.01980999467061</v>
       </c>
       <c r="L19" t="n">
-        <v>172.642085028808</v>
+        <v>172.6420850288081</v>
       </c>
       <c r="M19" t="n">
-        <v>195.402624460964</v>
+        <v>195.4026244609641</v>
       </c>
       <c r="N19" t="n">
-        <v>192.0974504781056</v>
+        <v>192.0974504781057</v>
       </c>
       <c r="O19" t="n">
-        <v>170.8669155842319</v>
+        <v>170.866915584232</v>
       </c>
       <c r="P19" t="n">
-        <v>126.6648810756559</v>
+        <v>126.664881075656</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.318574722805333</v>
+        <v>7.3185747228054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>154.837065145784</v>
+        <v>154.8370651457842</v>
       </c>
       <c r="K20" t="n">
-        <v>375.6867273482059</v>
+        <v>375.6867273482061</v>
       </c>
       <c r="L20" t="n">
-        <v>514.5280963492743</v>
+        <v>514.5280963492746</v>
       </c>
       <c r="M20" t="n">
-        <v>569.5692449912854</v>
+        <v>569.5692449912856</v>
       </c>
       <c r="N20" t="n">
-        <v>551.4880144817524</v>
+        <v>551.4880144817528</v>
       </c>
       <c r="O20" t="n">
-        <v>461.8073954529177</v>
+        <v>461.8073954529179</v>
       </c>
       <c r="P20" t="n">
-        <v>366.4892746424091</v>
+        <v>366.4892746424093</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.8154088745752</v>
+        <v>197.8154088745753</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.4548128621337</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>331.8517711180062</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3947964478589</v>
       </c>
       <c r="M21" t="n">
-        <v>35.04142305104693</v>
+        <v>648.051100833773</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>407.7842022564361</v>
       </c>
       <c r="P21" t="n">
-        <v>420.2230847355261</v>
+        <v>420.2230847355262</v>
       </c>
       <c r="Q21" t="n">
-        <v>243.7544161481626</v>
+        <v>243.7544161481627</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.01980999467052</v>
+        <v>88.01980999467061</v>
       </c>
       <c r="L22" t="n">
         <v>172.6420850288081</v>
       </c>
       <c r="M22" t="n">
-        <v>195.402624460964</v>
+        <v>195.4026244609641</v>
       </c>
       <c r="N22" t="n">
-        <v>192.0974504781056</v>
+        <v>192.0974504781057</v>
       </c>
       <c r="O22" t="n">
-        <v>170.8669155842319</v>
+        <v>170.866915584232</v>
       </c>
       <c r="P22" t="n">
-        <v>126.6648810756559</v>
+        <v>126.664881075656</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.318574722805341</v>
+        <v>7.3185747228054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871398</v>
       </c>
       <c r="L24" t="n">
-        <v>558.0125947793485</v>
+        <v>71.7067624279706</v>
       </c>
       <c r="M24" t="n">
-        <v>247.0463391856421</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N24" t="n">
         <v>745.7260435143686</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>470.8960208784692</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>277.6279320079682</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.654006233466279</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M27" t="n">
-        <v>207.0960455179288</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N27" t="n">
         <v>745.7260435143686</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470619</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784692</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>277.6279320079682</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306452</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143686</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>531.8981409648625</v>
       </c>
       <c r="P30" t="n">
-        <v>38.9289418300055</v>
+        <v>470.8960208784692</v>
       </c>
       <c r="Q30" t="n">
-        <v>277.6279320079682</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>438.7752394197629</v>
       </c>
       <c r="L32" t="n">
-        <v>592.7949742418855</v>
+        <v>592.7949742418858</v>
       </c>
       <c r="M32" t="n">
         <v>656.6562270596975</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5259166669741</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>374.7022807871398</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>207.0960455179288</v>
       </c>
       <c r="N33" t="n">
-        <v>433.5938915781836</v>
+        <v>745.7260435143686</v>
       </c>
       <c r="O33" t="n">
         <v>597.9628884470619</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.5259166669741</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>340.1980608589226</v>
+        <v>711.2299552235484</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143686</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>597.9628884470619</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>470.8960208784692</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.5259166669741</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>374.7022807871398</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M39" t="n">
-        <v>474.4894078741415</v>
+        <v>715.2883538306452</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>259.4202111629908</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470619</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>470.8960208784692</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5259166669741</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>374.7022807871398</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793485</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>222.7712317696741</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>597.9628884470619</v>
       </c>
       <c r="P42" t="n">
-        <v>470.8960208784692</v>
+        <v>417.6411928425314</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.5259166669741</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871398</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793485</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306452</v>
+        <v>207.0960455179287</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>745.7260435143687</v>
       </c>
       <c r="O45" t="n">
-        <v>506.7797843016889</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784693</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079682</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
